--- a/data/myths/metadata.xlsx
+++ b/data/myths/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/myths/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/_glos/data/myths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D17364-F32D-E845-81F5-6735870038D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64679388-0D1C-D94A-832F-83265B0131A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1180" windowWidth="27640" windowHeight="16920" activeTab="1" xr2:uid="{C86C6605-350B-1C4B-A6B9-DA6FA194AA69}"/>
+    <workbookView xWindow="1340" yWindow="1180" windowWidth="27640" windowHeight="16920" xr2:uid="{C86C6605-350B-1C4B-A6B9-DA6FA194AA69}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="431">
   <si>
     <t>Africa</t>
   </si>
@@ -1133,9 +1133,6 @@
     <t>corpus?</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>Babylon</t>
   </si>
   <si>
@@ -1160,12 +1157,6 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>scan</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -1182,6 +1173,153 @@
   </si>
   <si>
     <t>Hans Jonas. The Gnostic Religion. Boston: Beacon Press, 1958, . 86-87, 210, 213—218, 221-222, 224-229. + pp. 210, 213-214, 216.</t>
+  </si>
+  <si>
+    <t>scanned</t>
+  </si>
+  <si>
+    <t>pm001_cagn_orders_world</t>
+  </si>
+  <si>
+    <t>pm002_supreme_being</t>
+  </si>
+  <si>
+    <t>pm003_god_retreats_to_sky</t>
+  </si>
+  <si>
+    <t>pm004_chameleon_finds</t>
+  </si>
+  <si>
+    <t>pm006_bumba_vomits_world</t>
+  </si>
+  <si>
+    <t>pm007_how_zambe_created</t>
+  </si>
+  <si>
+    <t>pm008_quarrelsomeness</t>
+  </si>
+  <si>
+    <t>pm009_when_god_came</t>
+  </si>
+  <si>
+    <t>pm010_first_words</t>
+  </si>
+  <si>
+    <t>pm011_the_creation</t>
+  </si>
+  <si>
+    <t>pm012_separation_god_man</t>
+  </si>
+  <si>
+    <t>pm013_great_gods</t>
+  </si>
+  <si>
+    <t>pm014_theology_from_memphis</t>
+  </si>
+  <si>
+    <t>pm024_another_version_of_the_creation</t>
+  </si>
+  <si>
+    <t>pm027_genesis1</t>
+  </si>
+  <si>
+    <t>pm035_speaking_of_the_world</t>
+  </si>
+  <si>
+    <t>pm039_creation_according_to_mani</t>
+  </si>
+  <si>
+    <t>pm005a_making_world_man, pm005b_making_world_man, pm005c_making_world_man</t>
+  </si>
+  <si>
+    <t>myth_id(s)</t>
+  </si>
+  <si>
+    <t>J. M. Rodwell (trans.). The Koran. London: J. M. Dent, 1909, pp. 200-201.</t>
+  </si>
+  <si>
+    <t>pm041_koran_bee</t>
+  </si>
+  <si>
+    <t>J.M. Rodwell (trans.). The Koran. London: J. M. Dent, 1909, pp. 245, 299, 431, 273, 350.</t>
+  </si>
+  <si>
+    <t>pm042_from_koran</t>
+  </si>
+  <si>
+    <t>Robert Graves. Greek Myths. Vol. |. Baltimore, Md.: Penguin Books, 1955, p. 27.</t>
+  </si>
+  <si>
+    <t>pm043_pelasgian_creation</t>
+  </si>
+  <si>
+    <t>Walter Wili (trans. of fragments 21, 21a, and 168). “The Orphic Mysteries and the Greek Spirit.”</t>
+  </si>
+  <si>
+    <t>pm046_orphic_creation</t>
+  </si>
+  <si>
+    <t>John Rhys. Lectures on the Origin and Growth of Religion as Illustrated by Celtic Heathendom. 2nd ed. London: Williams and Norgate, 1862, pp. 669-672.</t>
+  </si>
+  <si>
+    <t>pm048_creed_of_celts</t>
+  </si>
+  <si>
+    <t>pm049_soothsaying_vala</t>
+  </si>
+  <si>
+    <t>Olive Bray (ed. and trans.). The Elder or Poetic Edda. The Mythological Poems, Part t. Viking Club Translation Series, Vol. 2. London: Viking Club, 1908, pp. 277-283.</t>
+  </si>
+  <si>
+    <t>Celts</t>
+  </si>
+  <si>
+    <t>Norse</t>
+  </si>
+  <si>
+    <t>W.F. Kirby (trans.). Kalevala: The Land of the Heroes. Vol. 1. London: J. M. Dent, 1907. pp. 5-7.</t>
+  </si>
+  <si>
+    <t>pm050_kalevala</t>
+  </si>
+  <si>
+    <t>Finno-Ugric</t>
+  </si>
+  <si>
+    <t>poetic</t>
+  </si>
+  <si>
+    <t>R.C. Zaehner (trans.). Hindu Scriptures. London: J. M. Dent, 1966, pp. 8-10.</t>
+  </si>
+  <si>
+    <t>pm051_sacrifice_primal_man</t>
+  </si>
+  <si>
+    <t>Julius Eggeling (trans.). “Satapatha-Brahmana, XI, i, 6.” Sacred Books of the East. Vol. 44, Max Müller (ed.). Oxford, England: Clarendon Press, 1900, pp. 12-15.</t>
+  </si>
+  <si>
+    <t>pm054_creation_from_egg</t>
+  </si>
+  <si>
+    <t>Robert Ernest Hume (ed. and trans.). The Thirteen Principal Upanishads. London: Oxford University Press, 1971. pp. 214-215, 241.</t>
+  </si>
+  <si>
+    <t>pm055_chandogya_upanishad</t>
+  </si>
+  <si>
+    <t>W. Theodore de Bary (ed.). Sources of Indian Tradition. Vol. 1. New York: Columbia University Press, 1966, pp. 76~78.</t>
+  </si>
+  <si>
+    <t>pm058_no_creator</t>
+  </si>
+  <si>
+    <t>W. Theodore de Bary. Sources of Indian Tradition. Vol. 1. New York: Columbia University Press, 1966, pp. 127~128.</t>
+  </si>
+  <si>
+    <t>pm060_buddha_world_evolved</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -1245,12 +1383,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,2727 +1715,2934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BC933E-230F-1548-8934-6621CB5E80DD}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="47.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="26.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="47.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>75</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>76</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>87</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>90</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="6">
+        <v>91</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H21" s="6">
+        <v>114</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H22" s="6">
+        <v>115</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H23" s="6">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" s="6">
+        <v>117</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="6">
+        <v>118</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H26" s="6">
+        <v>120</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="6">
+        <v>121</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="6">
+        <v>123</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="6">
+        <v>125</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6">
+        <v>126</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="6">
+        <v>127</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="6">
+        <v>130</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="6">
+        <v>133</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="6">
+        <v>134</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="6">
+        <v>135</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="6">
+        <v>136</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="6">
+        <v>139</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6">
+        <v>141</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="6">
+        <v>142</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="6">
+        <v>146</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="6">
+        <v>151</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="6">
+        <v>152</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="6">
+        <v>153</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H44" s="6">
+        <v>156</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H45" s="6">
+        <v>157</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H46" s="6">
+        <v>166</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H47" s="6">
+        <v>169</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="6">
+        <v>169</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="6">
+        <v>172</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="6">
+        <v>173</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="6">
+        <v>176</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="6">
+        <v>179</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="6">
+        <v>181</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="6">
+        <v>183</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="6">
+        <v>184</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="6">
+        <v>186</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="6">
+        <v>187</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="6">
+        <v>188</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="6">
+        <v>189</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="6">
+        <v>192</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="6">
+        <v>194</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="6">
+        <v>195</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="6">
+        <v>196</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="6">
+        <v>199</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="6">
+        <v>201</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="6">
+        <v>202</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="6">
+        <v>206</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="6">
+        <v>207</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="6">
+        <v>208</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="6">
+        <v>210</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="6">
         <v>211</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="6">
+        <v>215</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="6">
+        <v>217</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="6">
+        <v>218</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="6">
+        <v>218</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="6">
+        <v>219</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="6">
+        <v>220</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="6">
+        <v>229</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="6">
+        <v>232</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="6">
+        <v>236</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="6">
+        <v>236</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="6">
+        <v>237</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="6">
+        <v>242</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="6">
+        <v>243</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="6">
+        <v>243</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="6">
+        <v>244</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="6">
+        <v>245</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="6">
+        <v>248</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="6">
+        <v>252</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="6">
+        <v>253</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="6">
+        <v>255</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="6">
+        <v>257</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="6">
+        <v>258</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="6">
+        <v>260</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="6">
+        <v>263</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="6">
+        <v>268</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="6">
+        <v>284</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="6">
+        <v>287</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="6">
+        <v>298</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="6">
+        <v>301</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="6">
+        <v>305</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="6">
+        <v>308</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="6">
+        <v>313</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H104" s="6">
+        <v>315</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H105" s="6">
+        <v>321</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H106" s="6">
+        <v>323</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="6">
+        <v>325</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" s="6">
+        <v>326</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" s="6">
+        <v>327</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H110" s="6">
+        <v>330</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" s="6">
+        <v>331</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H112" s="6">
+        <v>334</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" s="6">
+        <v>336</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H114" s="6">
+        <v>337</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H115" s="6">
+        <v>338</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H116" s="6">
+        <v>338</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H117" s="6">
+        <v>339</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H118" s="6">
+        <v>344</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" s="6">
+        <v>346</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" s="6">
+        <v>349</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" s="6">
+        <v>350</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" s="6">
+        <v>351</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" s="6">
+        <v>352</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" s="6">
+        <v>353</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" s="6">
         <v>358</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="1">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1">
-        <v>77</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="1">
-        <v>76</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="1">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="1">
-        <v>118</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="1">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="1">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="1">
-        <v>146</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="1">
-        <v>153</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="1">
-        <v>156</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="1">
-        <v>169</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="1">
-        <v>172</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" s="1">
-        <v>183</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="1">
-        <v>184</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="1">
-        <v>192</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="1">
-        <v>194</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="1">
-        <v>195</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="1">
-        <v>199</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="1">
-        <v>206</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="1">
-        <v>211</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="1">
-        <v>215</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D26" s="1">
-        <v>218</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="1">
-        <v>229</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="1">
-        <v>237</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="1">
-        <v>244</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D30" s="1">
-        <v>263</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="1">
-        <v>284</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="1">
-        <v>287</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D33" s="1">
-        <v>301</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34" s="1">
-        <v>308</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D35" s="1">
-        <v>321</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="1">
-        <v>326</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D37" s="1">
-        <v>334</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="1">
-        <v>339</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D39" s="1">
-        <v>350</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="I125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L125" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D40" s="1">
-        <v>353</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="1">
-        <v>36</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="1">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="1">
-        <v>47</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" s="1">
-        <v>48</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="1">
-        <v>49</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="1">
-        <v>66</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="1">
-        <v>75</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="1">
-        <v>80</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" s="1">
-        <v>86</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="1">
-        <v>87</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="1">
-        <v>90</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="1">
-        <v>91</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="1">
-        <v>114</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="1">
-        <v>115</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="1">
-        <v>117</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D57" s="1">
-        <v>120</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D58" s="1">
-        <v>121</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="1">
-        <v>125</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="1">
-        <v>126</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="1">
-        <v>127</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="1">
-        <v>130</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D63" s="1">
-        <v>133</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="1">
-        <v>134</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="1">
-        <v>135</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="1">
-        <v>139</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="1">
-        <v>141</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="1">
-        <v>142</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69" s="1">
-        <v>151</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D70" s="1">
-        <v>152</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" s="1">
-        <v>157</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="1">
-        <v>166</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D73" s="1">
-        <v>169</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="1">
-        <v>173</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75" s="1">
-        <v>176</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="1">
-        <v>179</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D77" s="1">
-        <v>18</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="1">
-        <v>186</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="1">
-        <v>187</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="1">
-        <v>188</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="1">
-        <v>189</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C82" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="1">
-        <v>196</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D83" s="1">
-        <v>201</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="1">
-        <v>202</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="1">
-        <v>207</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="1">
-        <v>208</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="1">
-        <v>210</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D88" s="1">
-        <v>217</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D89" s="1">
-        <v>218</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" s="1">
-        <v>219</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="1">
-        <v>220</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D92" s="1">
-        <v>232</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D93" s="1">
-        <v>236</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D94" s="1">
-        <v>236</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D95" s="1">
-        <v>242</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" s="1">
-        <v>243</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D97" s="1">
-        <v>243</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" s="1">
-        <v>245</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D99" s="1">
-        <v>248</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D100" s="1">
-        <v>252</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D101" s="1">
-        <v>253</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C102" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D102" s="1">
-        <v>255</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D103" s="1">
-        <v>257</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C104" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D104" s="1">
-        <v>258</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D105" s="1">
-        <v>260</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D106" s="1">
-        <v>268</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D107" s="1">
-        <v>298</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C108" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="1">
-        <v>305</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C109" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" s="1">
-        <v>313</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C110" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" s="1">
-        <v>315</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C111" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D111" s="1">
-        <v>323</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C112" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D112" s="1">
-        <v>325</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C113" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D113" s="1">
-        <v>327</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C114" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D114" s="1">
-        <v>330</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D115" s="1">
-        <v>331</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C116" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D116" s="1">
-        <v>336</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C117" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D117" s="1">
-        <v>337</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D118" s="1">
-        <v>338</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C119" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D119" s="1">
-        <v>338</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C120" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D120" s="1">
-        <v>344</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C121" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D121" s="1">
-        <v>346</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D122" s="1">
-        <v>349</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D123" s="1">
-        <v>351</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C124" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D124" s="1">
-        <v>352</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C125" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D125" s="1">
-        <v>358</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>150</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J125">
-    <sortCondition ref="B2:B125"/>
+  <sortState ref="A2:L125">
+    <sortCondition ref="A2:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4295,9 +4652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41584BCE-5651-C84E-9C6A-4B81200F58D4}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4785,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>138</v>
@@ -4522,7 +4879,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>111</v>
@@ -4549,7 +4906,7 @@
         <v>238</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>115</v>
@@ -4616,7 +4973,7 @@
         <v>246</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>122</v>
@@ -4651,7 +5008,7 @@
         <v>250</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>126</v>
@@ -4669,6 +5026,9 @@
       <c r="A42" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
@@ -4677,6 +5037,9 @@
       <c r="A43" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4685,6 +5048,9 @@
       <c r="A44" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>139</v>
       </c>
@@ -4709,6 +5075,9 @@
       <c r="A47" s="4" t="s">
         <v>257</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
@@ -4725,6 +5094,9 @@
       <c r="A49" s="4" t="s">
         <v>259</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
@@ -4733,6 +5105,9 @@
       <c r="A50" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>145</v>
       </c>
@@ -4741,6 +5116,9 @@
       <c r="A51" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>146</v>
       </c>
@@ -4749,6 +5127,9 @@
       <c r="A52" s="4" t="s">
         <v>262</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>204</v>
       </c>
@@ -4773,6 +5154,9 @@
       <c r="A55" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>155</v>
       </c>
@@ -4781,6 +5165,9 @@
       <c r="A56" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>156</v>
       </c>
@@ -4813,6 +5200,9 @@
       <c r="A60" s="4" t="s">
         <v>270</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>160</v>
       </c>
@@ -4821,6 +5211,9 @@
       <c r="A61" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>161</v>
       </c>
@@ -5331,7 +5724,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>82</v>
@@ -5347,8 +5740,8 @@
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
